--- a/testbook.xlsx
+++ b/testbook.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Евсеев</t>
   </si>
@@ -174,6 +177,27 @@
   </si>
   <si>
     <t>Ву Кует</t>
+  </si>
+  <si>
+    <t>страница2</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>страница3</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Петрович</t>
   </si>
 </sst>
 </file>
@@ -516,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -792,4 +816,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>